--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F193E61-267B-40E5-891E-D352D58A4E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B93C2A-2A0C-46AB-9D56-3692F4E5D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S5c1113h15,S5c1117h13,S5c1118h09,S1b0108h10,S1b0109h07,S1b0113h09,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1b0110h15,S1b0111h13,S1b0114h12,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S5c1113h12,S5c1114h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</t>
-  </si>
-  <si>
-    <t>S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S6aH6,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S5c1113h20,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</t>
+    <t>S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S5c1113h12,S5c1114h16,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1b0110h15,S1b0111h13,S1b0114h12,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S5c1113h15,S5c1117h13,S5c1118h09,S1b0108h10,S1b0109h07,S1b0113h09,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</t>
+  </si>
+  <si>
+    <t>S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S5c1113h20,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S6aH6,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S6aH6,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S5c1113h20,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</v>
+        <v>S1b0108h04,S1b0108h19,S1b0108h24,S1b0111h22,S1b0113h22,S2aH8,S5c1115h19,S5c1115h24,S5c1116h03,S5c1118h06,S5c1118h22,S1b0109h02,S1b0110h04,S1b0113h06,S1b0114h04,S5c1112h04,S5c1112h19,S5c1112h20,S5c1113h01,S5c1113h03,S5c1116h04,S5c1117h02,S1aH1,S1b0109h06,S1b0114h23,S2aH7,S5c1115h01,S5c1116h21,S5c1117h23,S5c1118h01,S5c1118h04,S1b0108h05,S1b0110h02,S1b0111h19,S1b0111h20,S1b0113h01,S1b0113h23,S5c1114h02,S5c1114h24,S5c1115h20,S5c1116h22,S5c1118h20,S1b0108h02,S1b0109h03,S1b0109h19,S1b0110h01,S1b0110h05,S1b0112h22,S3aH8,S5c1112h05,S5c1113h06,S5c1115h02,S1aH6,S1b0108h01,S1b0110h06,S1b0110h20,S1b0112h02,S1b0113h03,S1b0113h21,S1b0114h02,S1b0114h24,S5c1112h23,S5c1116h24,S5c1117h01,S5c1117h19,S1b0109h05,S1b0109h20,S1b0111h21,S1b0112h21,S5c1113h20,S1b0108h03,S1b0109h21,S1b0114h20,S4aH8,S5c1114h01,S5c1114h06,S5c1116h23,S5c1117h06,S5c1117h21,S5c1118h03,S1b0109h23,S1b0110h22,S1b0112h06,S2aH6,S3aH1,S5c1112h03,S5c1113h02,S5c1113h21,S5c1115h04,S5c1115h21,S5c1118h19,S5c1118h21,S5c1118h23,S1aH7,S1b0109h01,S1b0109h04,S1b0111h02,S1b0111h03,S1b0111h05,S1b0112h24,S1b0114h06,S3aH6,S4aH7,S5aH6,S5aH7,S5c1112h06,S5c1113h22,S5c1114h19,S5c1115h23,S6aH6,S1b0108h06,S1b0108h22,S1b0110h24,S1b0111h06,S1b0113h20,S1b0114h01,S1b0114h03,S4aH6,S5c1112h21,S5c1113h19,S5c1113h23,S5c1114h03,S5c1114h05,S5c1115h22,S5c1116h01,S5c1116h20,S1b0109h24,S1b0112h04,S1b0112h05,S1b0112h23,S5c1113h05,S5c1114h21,S5c1114h22,S5c1116h02,S5c1118h24,S1b0108h20,S1b0110h23,S1b0111h04,S1b0112h01,S1b0112h20,S1b0113h04,S1b0113h05,S1b0113h19,S2aH1,S3aH7,S5aH8,S5c1114h23,S5c1117h04,S5c1117h20,S5c1117h22,S5c1117h24,S5c1118h02,S1b0111h01,S1b0113h02,S1b0114h22,S4aH1,S5c1114h04,S5c1115h06,S5c1116h05,S5c1117h03,S6aH1,S1b0108h21,S1b0110h03,S1b0110h21,S1b0112h19,S1b0113h24,S1b0114h19,S5c1112h01,S5c1112h02,S5c1112h22,S5c1112h24,S5c1113h04,S5c1113h24,S5c1114h20,S5c1116h06,S5c1116h19,S5c1118h05,S6aH8,S1aH8,S1b0108h23,S1b0109h22,S1b0110h19,S1b0111h23,S1b0111h24,S1b0112h03,S1b0114h05,S1b0114h21,S5aH1,S5c1115h03,S5c1115h05,S5c1117h05,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S5c1113h15,S5c1117h13,S5c1118h09,S1b0108h10,S1b0109h07,S1b0113h09,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1b0110h15,S1b0111h13,S1b0114h12,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S5c1113h12,S5c1114h16,S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</v>
+        <v>S1b0108h14,S1b0108h15,S1b0110h10,S1b0110h11,S1b0113h15,S1b0113h18,S5c1112h13,S5c1112h17,S5c1115h07,S5c1115h09,S5c1115h12,S1b0108h16,S1b0110h09,S1b0112h07,S1b0113h08,S1b0113h10,S1b0114h10,S1b0114h16,S4aH5,S5c1113h08,S5c1113h14,S5c1114h08,S5c1116h11,S5c1116h14,S5c1117h12,S1b0108h09,S1b0108h17,S1b0108h18,S1b0110h18,S1b0111h08,S1b0111h17,S5c1112h10,S5c1114h09,S5c1114h11,S5c1117h14,S5c1118h17,S1b0109h12,S1b0109h13,S1b0109h17,S1b0111h12,S1b0111h16,S1b0112h13,S1b0114h17,S3aH4,S4aH3,S4aH4,S5c1112h14,S5c1114h18,S5c1115h13,S5c1115h18,S5c1118h16,S1b0109h11,S1b0111h09,S1b0111h14,S1b0112h08,S1b0113h11,S1b0114h11,S1b0114h14,S3aH2,S5c1113h12,S5c1114h16,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1b0109h10,S1b0110h14,S1b0111h10,S2aH4,S2aH5,S5aH2,S5aH5,S5c1112h12,S5c1114h13,S5c1116h16,S5c1118h10,S6aH2,S1aH2,S1b0110h13,S1b0111h15,S1b0112h11,S1b0112h16,S1b0113h14,S1b0114h08,S2aH3,S5c1112h09,S5c1113h16,S5c1115h14,S5c1116h17,S5c1117h16,S5c1117h17,S1b0111h18,S1b0112h14,S1b0113h12,S1b0113h17,S5c1113h13,S5c1114h12,S5c1116h09,S5c1116h10,S5c1118h11,S6aH5,S1b0110h15,S1b0111h13,S1b0114h12,S5c1116h12,S5c1117h07,S5c1117h09,S5c1117h10,S5c1117h11,S1aH3,S1b0108h07,S1b0109h08,S1b0109h15,S1b0110h07,S1b0111h11,S1b0113h07,S1b0113h16,S1b0114h13,S5c1112h11,S5c1113h10,S5c1113h18,S5c1115h11,S5c1115h15,S1b0109h09,S1b0109h14,S1b0112h09,S1b0114h18,S3aH3,S5c1112h07,S5c1112h16,S5c1112h18,S5c1114h10,S5c1115h17,S5c1116h13,S5c1118h12,S1b0109h16,S1b0110h08,S1b0110h17,S1b0111h07,S1b0112h17,S1b0112h18,S1b0113h13,S1b0114h07,S5aH4,S5c1114h15,S5c1115h08,S5c1115h16,S5c1117h15,S5c1118h07,S5c1118h14,S6aH3,S6aH4,S1b0108h11,S1b0110h16,S1b0112h15,S4aH2,S5c1112h08,S5c1112h15,S5c1114h07,S5c1117h08,S5c1118h08,S5c1118h15,S5c1118h18,S1aH4,S1b0109h18,S1b0114h15,S2aH2,S5c1113h15,S5c1117h13,S5c1118h09,S1b0108h10,S1b0109h07,S1b0113h09,S5c1113h07,S5c1114h14,S5c1115h10,S5c1116h07,S1b0110h12,S1b0112h10,S1b0112h12,S1b0114h09,S3aH5,S5aH3,S5c1113h09,S5c1113h11,S5c1113h17,S5c1114h17,S5c1116h08,S5c1116h15,S5c1116h18,S5c1117h18,S5c1118h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D310575E-98D4-4F00-A4BD-1A1BDDC967F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBF86CD-9258-4C96-99F3-99B03F394CE4}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FC0131-BF8D-4521-B4AC-8C0B2D9E1EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B244C-BEB4-4802-A7B0-8D871060B649}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6632,10 +6632,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>0.13373395247200218</v>
+        <v>0.12029500136574706</v>
       </c>
       <c r="O4" t="s">
         <v>830</v>
@@ -6667,10 +6667,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N5">
-        <v>0.52706910680142027</v>
+        <v>8.161704452335429E-2</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6702,10 +6702,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.19076754984976782</v>
+        <v>0.52706910680142027</v>
       </c>
       <c r="O6" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.1465173449877083</v>
+        <v>0.19076754984976782</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6772,10 +6772,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>8.161704452335429E-2</v>
+        <v>0.13373395247200218</v>
       </c>
       <c r="O8" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>434</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>0.12029500136574706</v>
+        <v>0.1465173449877083</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5921EFA-A3E3-4BA3-9458-6CEFA5A9031F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E053BE7A-38F6-48FD-84EB-9C6C320F6318}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27FDE4-C895-4386-9F2C-3D2B9E6CFBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF686A6-F3E5-41C1-B553-7CF2201864AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2511,10 +2511,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH7,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S5c1026h14,S5c1027h14,S5c1028h12,S5c1028h14,S1aH5,S2aH4,S2aH5,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S5c1022h18,S5c1023h07,S5c1023h15,S5c1025h08,S5c1025h18,S5c1026h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1009h16,S5b1011h12,S5c1022h07,S5c1022h14,S5c1022h15,S5c1022h17,S5c1024h10,S5c1025h09,S5c1026h10,S5c1027h08,S5c1027h18,S6aH6,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S5c1023h09,S5c1023h11,S5c1026h16,S5c1027h10,S5c1027h13,S6aH5,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S5c1022h12,S5c1024h12,S5c1027h09,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S5c1023h08,S5c1024h09,S5c1028h15,S6aH7,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S5c1022h08,S5c1022h11,S5c1023h10,S5c1023h17,S5c1025h07,S5c1025h10,S5c1028h10,S2aH6,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S5c1023h18,S5c1024h16,S5c1024h18,S5c1025h11,S5c1026h07,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S5c1022h16,S5c1023h16,S5c1025h15,S1aH4,S4aH6,S5b1009h13,S5b1011h14,S5b1013h14,S5c1023h12,S5c1024h07,S5c1026h13,S5c1026h17,S5c1028h09,S5c1028h11,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S5c1024h15,S5c1025h12,S5c1027h07,S5c1027h16,S5c1028h16,S6aH3,S6aH4,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S5c1022h09,S5c1022h10,S5c1024h17,S5c1025h13,S5c1025h17,S5c1026h11,S5c1026h12,S5c1028h13,S5c1028h18,S1aH6,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S5c1024h11,S5c1024h13,S5c1026h18,S3aH7,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S5c1023h14,S5c1024h08,S5c1025h16,S5c1026h15,S5c1028h07,S5c1028h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S5c1027h11,S5c1027h15,S5c1027h17,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S5c1022h13,S5c1023h13,S5c1024h14,S5c1025h14,S5c1026h09,S5c1027h12,S5c1028h08</t>
-  </si>
-  <si>
-    <t>S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S5c1022h05,S5c1025h19,S5c1026h02,S5c1026h23,S5c1027h20,S5c1028h03,S5c1028h04,S5b1011h01,S5c1027h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S5c1024h03,S5c1025h02,S5c1027h03,S5c1027h05,S5c1027h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S5c1022h03,S5c1022h20,S5c1022h22,S5c1025h23,S2aH2,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S5c1026h22,S5c1028h20,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S5c1022h21,S5c1023h06,S5c1023h20,S5c1023h24,S5c1024h04,S5c1026h01,S5c1026h04,S5c1027h24,S1aH2,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S5c1024h02,S5c1024h05,S5c1024h23,S5c1025h01,S5c1026h24,S5c1028h05,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S5c1022h24,S5c1024h01,S5c1025h05,S5c1027h02,S1aH1,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S5c1022h01,S5c1023h03,S5c1023h05,S5c1024h20,S5c1025h21,S5c1025h22,S5c1026h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S5c1022h04,S5c1022h06,S5c1022h19,S5c1022h23,S5c1024h19,S5c1024h22,S5c1025h20,S5c1027h19,S5c1027h21,S5c1028h02,S6aH1,S5b1009h05,S5b1009h23,S5b1012h03,S5c1027h04,S5c1027h22,S2aH1,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S5c1023h04,S5c1023h19,S5c1023h22,S5c1024h21,S5c1026h21,S5c1028h06,S5aH2,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S5c1024h06,S5c1026h06,S5c1028h23,S6aH2,S6aH8,S2aH8,S4aH2,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S5c1022h02,S5c1023h01,S5c1023h02,S5c1024h24,S5c1025h03,S5c1026h05,S5c1026h19,S5c1028h19,S3aH2,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S5c1023h23,S5c1025h06,S5c1025h24,S5c1028h22,S5c1028h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S5c1023h21,S5c1025h04,S5c1026h03,S5c1027h01,S5c1028h01,S5c1028h21</t>
+    <t>S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S5c1023h08,S5c1024h09,S5c1028h15,S6aH7,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S5c1022h16,S5c1023h16,S5c1025h15,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S5c1022h09,S5c1022h10,S5c1024h17,S5c1025h13,S5c1025h17,S5c1026h11,S5c1026h12,S5c1028h13,S5c1028h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S5c1022h12,S5c1024h12,S5c1027h09,S3aH7,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S5c1023h14,S5c1024h08,S5c1025h16,S5c1026h15,S5c1028h07,S5c1028h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S5c1024h15,S5c1025h12,S5c1027h07,S5c1027h16,S5c1028h16,S6aH3,S6aH4,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S5c1027h11,S5c1027h15,S5c1027h17,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1009h16,S5b1011h12,S5c1022h07,S5c1022h14,S5c1022h15,S5c1022h17,S5c1024h10,S5c1025h09,S5c1026h10,S5c1027h08,S5c1027h18,S6aH6,S1aH5,S2aH4,S2aH5,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S5c1022h18,S5c1023h07,S5c1023h15,S5c1025h08,S5c1025h18,S5c1026h08,S1aH6,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S5c1024h11,S5c1024h13,S5c1026h18,S1aH4,S4aH6,S5b1009h13,S5b1011h14,S5b1013h14,S5c1023h12,S5c1024h07,S5c1026h13,S5c1026h17,S5c1028h09,S5c1028h11,S2aH6,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S5c1023h18,S5c1024h16,S5c1024h18,S5c1025h11,S5c1026h07,S2aH7,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S5c1026h14,S5c1027h14,S5c1028h12,S5c1028h14,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S5c1022h08,S5c1022h11,S5c1023h10,S5c1023h17,S5c1025h07,S5c1025h10,S5c1028h10,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S5c1023h09,S5c1023h11,S5c1026h16,S5c1027h10,S5c1027h13,S6aH5,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S5c1022h13,S5c1023h13,S5c1024h14,S5c1025h14,S5c1026h09,S5c1027h12,S5c1028h08</t>
+  </si>
+  <si>
+    <t>S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S5c1022h21,S5c1023h06,S5c1023h20,S5c1023h24,S5c1024h04,S5c1026h01,S5c1026h04,S5c1027h24,S1aH1,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S5c1022h01,S5c1023h03,S5c1023h05,S5c1024h20,S5c1025h21,S5c1025h22,S5c1026h20,S2aH1,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S5c1023h04,S5c1023h19,S5c1023h22,S5c1024h21,S5c1026h21,S5c1028h06,S2aH2,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S5c1026h22,S5c1028h20,S2aH8,S4aH2,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S5c1022h02,S5c1023h01,S5c1023h02,S5c1024h24,S5c1025h03,S5c1026h05,S5c1026h19,S5c1028h19,S5b1009h05,S5b1009h23,S5b1012h03,S5c1027h04,S5c1027h22,S3aH2,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S5c1023h23,S5c1025h06,S5c1025h24,S5c1028h22,S5c1028h24,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S5c1024h03,S5c1025h02,S5c1027h03,S5c1027h05,S5c1027h06,S5b1011h01,S5c1027h23,S5aH2,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S5c1024h06,S5c1026h06,S5c1028h23,S6aH2,S6aH8,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S5c1022h04,S5c1022h06,S5c1022h19,S5c1022h23,S5c1024h19,S5c1024h22,S5c1025h20,S5c1027h19,S5c1027h21,S5c1028h02,S6aH1,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S5c1022h24,S5c1024h01,S5c1025h05,S5c1027h02,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S5c1022h05,S5c1025h19,S5c1026h02,S5c1026h23,S5c1027h20,S5c1028h03,S5c1028h04,S1aH2,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S5c1024h02,S5c1024h05,S5c1024h23,S5c1025h01,S5c1026h24,S5c1028h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S5c1022h03,S5c1022h20,S5c1022h22,S5c1025h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S5c1023h21,S5c1025h04,S5c1026h03,S5c1027h01,S5c1028h01,S5c1028h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S5c1022h05,S5c1025h19,S5c1026h02,S5c1026h23,S5c1027h20,S5c1028h03,S5c1028h04,S5b1011h01,S5c1027h23,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S5c1024h03,S5c1025h02,S5c1027h03,S5c1027h05,S5c1027h06,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S5c1022h03,S5c1022h20,S5c1022h22,S5c1025h23,S2aH2,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S5c1026h22,S5c1028h20,S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S5c1022h21,S5c1023h06,S5c1023h20,S5c1023h24,S5c1024h04,S5c1026h01,S5c1026h04,S5c1027h24,S1aH2,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S5c1024h02,S5c1024h05,S5c1024h23,S5c1025h01,S5c1026h24,S5c1028h05,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S5c1022h24,S5c1024h01,S5c1025h05,S5c1027h02,S1aH1,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S5c1022h01,S5c1023h03,S5c1023h05,S5c1024h20,S5c1025h21,S5c1025h22,S5c1026h20,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S5c1022h04,S5c1022h06,S5c1022h19,S5c1022h23,S5c1024h19,S5c1024h22,S5c1025h20,S5c1027h19,S5c1027h21,S5c1028h02,S6aH1,S5b1009h05,S5b1009h23,S5b1012h03,S5c1027h04,S5c1027h22,S2aH1,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S5c1023h04,S5c1023h19,S5c1023h22,S5c1024h21,S5c1026h21,S5c1028h06,S5aH2,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S5c1024h06,S5c1026h06,S5c1028h23,S6aH2,S6aH8,S2aH8,S4aH2,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S5c1022h02,S5c1023h01,S5c1023h02,S5c1024h24,S5c1025h03,S5c1026h05,S5c1026h19,S5c1028h19,S3aH2,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S5c1023h23,S5c1025h06,S5c1025h24,S5c1028h22,S5c1028h24,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S5c1023h21,S5c1025h04,S5c1026h03,S5c1027h01,S5c1028h01,S5c1028h21</v>
+        <v>S3aH1,S5b1008h02,S5b1009h22,S5b1010h05,S5b1012h04,S5b1012h20,S5b1014h04,S5c1022h21,S5c1023h06,S5c1023h20,S5c1023h24,S5c1024h04,S5c1026h01,S5c1026h04,S5c1027h24,S1aH1,S5b1008h03,S5b1008h04,S5b1012h06,S5b1014h02,S5c1022h01,S5c1023h03,S5c1023h05,S5c1024h20,S5c1025h21,S5c1025h22,S5c1026h20,S2aH1,S5aH8,S5b1008h24,S5b1011h19,S5b1012h24,S5b1013h23,S5b1014h21,S5c1023h04,S5c1023h19,S5c1023h22,S5c1024h21,S5c1026h21,S5c1028h06,S2aH2,S5b1009h19,S5b1009h20,S5b1010h04,S5b1010h19,S5b1011h02,S5b1011h21,S5b1012h22,S5b1014h01,S5c1026h22,S5c1028h20,S2aH8,S4aH2,S5b1010h24,S5b1011h05,S5b1011h20,S5b1013h01,S5b1013h02,S5b1014h23,S5c1022h02,S5c1023h01,S5c1023h02,S5c1024h24,S5c1025h03,S5c1026h05,S5c1026h19,S5c1028h19,S5b1009h05,S5b1009h23,S5b1012h03,S5c1027h04,S5c1027h22,S3aH2,S5b1009h01,S5b1009h02,S5b1010h02,S5b1011h22,S5b1013h22,S5c1023h23,S5c1025h06,S5c1025h24,S5c1028h22,S5c1028h24,S5b1010h03,S5b1011h04,S5b1011h24,S5b1013h05,S5b1014h03,S5c1024h03,S5c1025h02,S5c1027h03,S5c1027h05,S5c1027h06,S5b1011h01,S5c1027h23,S5aH2,S5b1008h05,S5b1008h21,S5b1009h04,S5b1010h22,S5c1024h06,S5c1026h06,S5c1028h23,S6aH2,S6aH8,S4aH1,S5b1008h01,S5b1009h24,S5b1010h06,S5b1011h06,S5b1013h06,S5b1014h22,S5c1022h04,S5c1022h06,S5c1022h19,S5c1022h23,S5c1024h19,S5c1024h22,S5c1025h20,S5c1027h19,S5c1027h21,S5c1028h02,S6aH1,S1aH8,S5aH1,S5b1008h22,S5b1012h01,S5b1014h05,S5b1014h06,S5c1022h24,S5c1024h01,S5c1025h05,S5c1027h02,S5b1010h01,S5b1010h20,S5b1010h23,S5b1011h03,S5b1012h02,S5b1013h04,S5b1013h24,S5c1022h05,S5c1025h19,S5c1026h02,S5c1026h23,S5c1027h20,S5c1028h03,S5c1028h04,S1aH2,S5b1008h20,S5b1011h23,S5b1012h05,S5b1013h03,S5c1024h02,S5c1024h05,S5c1024h23,S5c1025h01,S5c1026h24,S5c1028h05,S4aH8,S5b1008h06,S5b1008h23,S5b1009h03,S5b1009h06,S5b1009h21,S5b1010h21,S5b1012h19,S5b1012h23,S5b1013h21,S5b1014h20,S5b1014h24,S5c1022h03,S5c1022h20,S5c1022h22,S5c1025h23,S3aH8,S5b1008h19,S5b1012h21,S5b1013h19,S5b1013h20,S5b1014h19,S5c1023h21,S5c1025h04,S5c1026h03,S5c1027h01,S5c1028h01,S5c1028h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH7,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S5c1026h14,S5c1027h14,S5c1028h12,S5c1028h14,S1aH5,S2aH4,S2aH5,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S5c1022h18,S5c1023h07,S5c1023h15,S5c1025h08,S5c1025h18,S5c1026h08,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1009h16,S5b1011h12,S5c1022h07,S5c1022h14,S5c1022h15,S5c1022h17,S5c1024h10,S5c1025h09,S5c1026h10,S5c1027h08,S5c1027h18,S6aH6,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S5c1023h09,S5c1023h11,S5c1026h16,S5c1027h10,S5c1027h13,S6aH5,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S5c1022h12,S5c1024h12,S5c1027h09,S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S5c1023h08,S5c1024h09,S5c1028h15,S6aH7,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S5c1022h08,S5c1022h11,S5c1023h10,S5c1023h17,S5c1025h07,S5c1025h10,S5c1028h10,S2aH6,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S5c1023h18,S5c1024h16,S5c1024h18,S5c1025h11,S5c1026h07,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S5c1022h16,S5c1023h16,S5c1025h15,S1aH4,S4aH6,S5b1009h13,S5b1011h14,S5b1013h14,S5c1023h12,S5c1024h07,S5c1026h13,S5c1026h17,S5c1028h09,S5c1028h11,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S5c1024h15,S5c1025h12,S5c1027h07,S5c1027h16,S5c1028h16,S6aH3,S6aH4,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S5c1022h09,S5c1022h10,S5c1024h17,S5c1025h13,S5c1025h17,S5c1026h11,S5c1026h12,S5c1028h13,S5c1028h18,S1aH6,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S5c1024h11,S5c1024h13,S5c1026h18,S3aH7,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S5c1023h14,S5c1024h08,S5c1025h16,S5c1026h15,S5c1028h07,S5c1028h17,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S5c1027h11,S5c1027h15,S5c1027h17,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S5c1022h13,S5c1023h13,S5c1024h14,S5c1025h14,S5c1026h09,S5c1027h12,S5c1028h08</v>
+        <v>S5b1009h14,S5b1011h09,S5b1011h15,S5b1012h08,S5b1012h16,S5c1023h08,S5c1024h09,S5c1028h15,S6aH7,S5b1008h09,S5b1009h07,S5b1009h11,S5b1010h07,S5b1010h10,S5b1012h14,S5b1012h17,S5b1013h11,S5c1022h16,S5c1023h16,S5c1025h15,S5b1009h15,S5b1009h18,S5b1010h14,S5b1011h11,S5b1012h07,S5b1012h15,S5b1012h18,S5b1013h16,S5b1014h18,S5c1022h09,S5c1022h10,S5c1024h17,S5c1025h13,S5c1025h17,S5c1026h11,S5c1026h12,S5c1028h13,S5c1028h18,S3aH3,S5b1010h18,S5b1011h08,S5b1012h11,S5b1013h09,S5b1014h10,S5c1022h12,S5c1024h12,S5c1027h09,S3aH7,S5b1009h17,S5b1011h10,S5b1011h18,S5b1014h11,S5b1014h12,S5c1023h14,S5c1024h08,S5c1025h16,S5c1026h15,S5c1028h07,S5c1028h17,S5aH4,S5b1008h07,S5b1010h13,S5b1012h12,S5c1024h15,S5c1025h12,S5c1027h07,S5c1027h16,S5c1028h16,S6aH3,S6aH4,S4aH5,S5b1008h08,S5b1008h13,S5b1009h10,S5c1027h11,S5c1027h15,S5c1027h17,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b1009h16,S5b1011h12,S5c1022h07,S5c1022h14,S5c1022h15,S5c1022h17,S5c1024h10,S5c1025h09,S5c1026h10,S5c1027h08,S5c1027h18,S6aH6,S1aH5,S2aH4,S2aH5,S5aH5,S5b1009h09,S5b1010h09,S5b1011h16,S5b1011h17,S5b1013h17,S5b1014h07,S5c1022h18,S5c1023h07,S5c1023h15,S5c1025h08,S5c1025h18,S5c1026h08,S1aH6,S5b1008h10,S5b1008h12,S5b1008h14,S5b1010h12,S5b1012h13,S5b1013h07,S5b1013h12,S5b1013h15,S5b1014h15,S5c1024h11,S5c1024h13,S5c1026h18,S1aH4,S4aH6,S5b1009h13,S5b1011h14,S5b1013h14,S5c1023h12,S5c1024h07,S5c1026h13,S5c1026h17,S5c1028h09,S5c1028h11,S2aH6,S3aH5,S5aH3,S5b1010h16,S5b1010h17,S5c1023h18,S5c1024h16,S5c1024h18,S5c1025h11,S5c1026h07,S2aH7,S3aH4,S4aH3,S4aH4,S5b1010h11,S5b1013h10,S5b1014h08,S5b1014h14,S5c1026h14,S5c1027h14,S5c1028h12,S5c1028h14,S1aH3,S5b1009h12,S5b1010h15,S5b1014h13,S5c1022h08,S5c1022h11,S5c1023h10,S5c1023h17,S5c1025h07,S5c1025h10,S5c1028h10,S5b1008h15,S5b1009h08,S5b1010h08,S5b1011h07,S5b1011h13,S5b1013h08,S5b1013h13,S5b1014h16,S5b1014h17,S5c1023h09,S5c1023h11,S5c1026h16,S5c1027h10,S5c1027h13,S6aH5,S5b1008h11,S5b1008h16,S5b1008h17,S5b1008h18,S5b1012h09,S5b1012h10,S5b1013h18,S5b1014h09,S5c1022h13,S5c1023h13,S5c1024h14,S5c1025h14,S5c1026h09,S5c1027h12,S5c1028h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3730,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199D5864-7DEF-48E7-9564-A1B7C4515650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D8F2CD-5A04-4A86-8BF5-8FB1B14AA0A5}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6553,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3956D7-2648-4F82-9435-33011D6F763C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CD69F2-5F09-4E46-BD40-260072D6485C}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6667,10 +6667,10 @@
         <v>819</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>8.1617044523354262E-2</v>
+        <v>0.11210051898388416</v>
       </c>
       <c r="O5" t="s">
         <v>830</v>
@@ -6737,10 +6737,10 @@
         <v>819</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.11210051898388416</v>
+        <v>0.18585086042065005</v>
       </c>
       <c r="O7" t="s">
         <v>830</v>
@@ -6807,10 +6807,10 @@
         <v>819</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.18585086042065005</v>
+        <v>8.1617044523354262E-2</v>
       </c>
       <c r="O9" t="s">
         <v>830</v>
@@ -16650,7 +16650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCDC3B-09D7-4BCA-A7E7-2AF882AB6FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CCE02D-2845-49E9-AF44-4EA4379BCF3C}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
